--- a/Y2021/Excel/Puzzle24-Subprograms-x14.xlsx
+++ b/Y2021/Excel/Puzzle24-Subprograms-x14.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezoch\Repos\AdventOfCode\Y2021\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{978D6E4F-90E3-4076-84FD-3D14B1B92863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C061C6-E19A-4E0C-BC70-761BEFE1A101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="1875" windowWidth="27240" windowHeight="17070"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs" sheetId="1" r:id="rId1"/>
+    <sheet name="Simplify to C#" sheetId="4" r:id="rId2"/>
+    <sheet name="Works" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="66">
   <si>
     <t xml:space="preserve">inp w </t>
   </si>
@@ -34,9 +47,6 @@
     <t>mod x 26</t>
   </si>
   <si>
-    <t>nop z 1</t>
-  </si>
-  <si>
     <t>div z 26</t>
   </si>
   <si>
@@ -109,9 +119,6 @@
     <t>add y 7</t>
   </si>
   <si>
-    <t>nop y 0</t>
-  </si>
-  <si>
     <t>add y 4</t>
   </si>
   <si>
@@ -128,13 +135,109 @@
   </si>
   <si>
     <t>add z y</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>div z 1</t>
+  </si>
+  <si>
+    <t>mul y 0</t>
+  </si>
+  <si>
+    <t>mul x 0</t>
+  </si>
+  <si>
+    <t>add y 0</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>w = input;</t>
+  </si>
+  <si>
+    <t>x = 0;</t>
+  </si>
+  <si>
+    <t>y = 0;</t>
+  </si>
+  <si>
+    <t>y = 25;</t>
+  </si>
+  <si>
+    <t>x = z;</t>
+  </si>
+  <si>
+    <t>y = w;</t>
+  </si>
+  <si>
+    <t>x = z % 26;</t>
+  </si>
+  <si>
+    <t>x = (z % 26) + B;</t>
+  </si>
+  <si>
+    <t>x = (((z % 26) + B) == w);</t>
+  </si>
+  <si>
+    <t>x = !(((z % 26) + B) == w);</t>
+  </si>
+  <si>
+    <t>y = 25 * !(((z % 26) + B) == w) ? 1 : 0;</t>
+  </si>
+  <si>
+    <t>y = (25 * !(((z % 26) + B) == w) ? 1 : 0) + 1;</t>
+  </si>
+  <si>
+    <t>z1 = z / A;</t>
+  </si>
+  <si>
+    <t>y = w + C;</t>
+  </si>
+  <si>
+    <t>y =  !(((z % 26) + B) == w) * (w + C)</t>
+  </si>
+  <si>
+    <t>z1 =  (z / A) * ((25 * !(((z % 26) + B) == w) ? 1 : 0) + 1);</t>
+  </si>
+  <si>
+    <t>z1 =  ((z / A) * ((25 * !(((z % 26) + B) == w) ? 1 : 0) + 1)) + (!(((z % 26) + B) == w) * (w + C))</t>
+  </si>
+  <si>
+    <t>z1 = f(z, w, A, B, C)</t>
+  </si>
+  <si>
+    <t>z0 = f(z, w, A, B, C)</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Backward</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +372,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -451,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -566,6 +684,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -611,8 +744,52 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="20"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="20" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="20" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -967,811 +1144,1811 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16" width="9.28515625" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C1" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2">
+        <f>C1+1</f>
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <f t="shared" ref="E1:P1" si="0">D1+1</f>
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G1" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I1" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J1" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K1" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L1" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M1" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N1" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O1" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P1" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M2" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N2" t="s">
         <v>0</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A19" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890DBAC4-5DF0-434D-B1BC-14DF8B1572E1}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+    <col min="8" max="8" width="4" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7">
+        <f>B1+1</f>
+        <v>1</v>
+      </c>
+      <c r="D1" s="7">
+        <f t="shared" ref="D1:F1" si="0">C1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E1" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F1" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <f t="shared" ref="A4:A19" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="17" width="5.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="2">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="M4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="M5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="N6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="M9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="M10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G15" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
+      <c r="M15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="G16" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="M16" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="s">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J16" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="M16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" t="s">
-        <v>35</v>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>